--- a/DB Specification/ENCLICK_테이블 명세서_DELV_MST.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_DELV_MST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Downloads\ENCLICK_테이블명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1087B1-68DF-43D1-93DC-BFF438B58992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4119E80-9282-4C06-B7EB-BB3933078294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,10 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADDRESS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,7 +468,19 @@
     <t>COMMON_CODE</t>
   </si>
   <si>
-    <t>getdate()</t>
+    <t>DATETIME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT(getdate())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT('Y')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +751,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,6 +869,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,12 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1202,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="104" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1225,36 +1226,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="20" t="s">
         <v>21</v>
       </c>
@@ -1263,19 +1264,19 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
       <c r="J3" s="20" t="s">
         <v>23</v>
       </c>
@@ -1287,19 +1288,19 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="C4" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="20" t="s">
         <v>25</v>
       </c>
@@ -1311,19 +1312,19 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
+      <c r="C5" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
       <c r="N5" s="2" t="s">
@@ -1331,21 +1332,21 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
+      <c r="C6" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
       <c r="N6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1453,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1</v>
@@ -1471,7 +1472,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K15" s="10"/>
       <c r="M15" s="37" t="s">
@@ -1484,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>14</v>
@@ -1497,16 +1498,16 @@
         <v>7</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>72</v>
@@ -1521,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -1537,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="H17" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>72</v>
@@ -1558,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>14</v>
@@ -1572,7 +1573,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K18" s="10"/>
       <c r="M18" s="37"/>
@@ -1585,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
@@ -1601,13 +1602,13 @@
         <v>57</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>72</v>
@@ -1622,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>14</v>
@@ -1638,13 +1639,13 @@
         <v>57</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>72</v>
@@ -1662,13 +1663,13 @@
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>7</v>
@@ -1677,7 +1678,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K21" s="13"/>
       <c r="M21" s="37"/>
@@ -1693,13 +1694,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>7</v>
@@ -1724,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1857,7 +1858,7 @@
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>19</v>
@@ -1874,7 +1875,7 @@
     </row>
     <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>19</v>
@@ -2037,7 +2038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36B5F9-DD6C-4513-B25E-14CD7010AD98}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -2059,27 +2060,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="46" t="str">
+      <c r="C2" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$2</f>
         <v>EnClick</v>
       </c>
-      <c r="D2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
         <v>21</v>
       </c>
@@ -2089,15 +2090,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="46" t="str">
+      <c r="C3" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$3</f>
         <v>ENCLICK</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="20" t="s">
         <v>23</v>
       </c>
@@ -2107,15 +2108,15 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="46" t="str">
+      <c r="C4" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>DELV_MST</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="20" t="s">
         <v>25</v>
       </c>
@@ -2125,28 +2126,28 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="46" t="str">
+      <c r="C5" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$5</f>
         <v>배송정보</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="46" t="str">
+      <c r="C6" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$6</f>
         <v>상품 주문의 배송 정보</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
@@ -2183,13 +2184,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2197,13 +2198,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2211,13 +2212,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2225,13 +2226,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2419,7 +2420,7 @@
       <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="48" t="str">
+      <c r="E34" s="39" t="str">
         <f>"FK"&amp;"_"&amp;C37&amp;"_TO_"&amp;C34&amp;"_1"</f>
         <v>FK_COMMON_CODE_TO_DELV_MST_1</v>
       </c>
@@ -2429,7 +2430,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2" t="str">
         <f>IF(C36&lt;&gt;"",",","")</f>
@@ -2440,22 +2441,21 @@
       <c r="B36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="47"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="47" t="s">
-        <v>110</v>
+      <c r="C37" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="47" t="s">
-        <v>103</v>
+      <c r="C38" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D38" s="2" t="str">
         <f>IF(C39&lt;&gt;"",",","")</f>
@@ -2466,26 +2466,19 @@
       <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="47"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="47"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="47"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="47" t="str">
+      <c r="C42" s="2" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>DELV_MST</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="48" t="str">
+      <c r="E42" s="39" t="str">
         <f>"FK"&amp;"_"&amp;C45&amp;"_TO_"&amp;C42&amp;"_1"</f>
         <v>FK_COMMON_CODE_TO_DELV_MST_1</v>
       </c>
@@ -2495,7 +2488,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C43" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" s="2" t="str">
         <f>IF(C44&lt;&gt;"",",","")</f>
@@ -2506,22 +2499,21 @@
       <c r="B44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="47"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="47" t="s">
-        <v>110</v>
+      <c r="C45" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="47" t="s">
-        <v>103</v>
+      <c r="C46" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D46" s="2" t="str">
         <f>IF(C47&lt;&gt;"",",","")</f>
